--- a/output/baselines_results.xlsx
+++ b/output/baselines_results.xlsx
@@ -1,117 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
-  <si>
-    <t>BiVAE</t>
-  </si>
-  <si>
-    <t>EASEᴿ</t>
-  </si>
-  <si>
-    <t>MostPop</t>
-  </si>
-  <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Subset</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>POI</t>
-  </si>
-  <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>FSH</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
-    <t>MDR</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>PRS</t>
-  </si>
-  <si>
-    <t>LND</t>
-  </si>
-  <si>
-    <t>GJN</t>
-  </si>
-  <si>
-    <t>NDCG@10</t>
-  </si>
-  <si>
-    <t>Recall@10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,18 +46,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -139,16 +77,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,690 +441,792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Subset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BiVAE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EASEᴿ</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MostPop</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ETeR-X</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>USEM</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>BERT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.0191770842858194</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.1371091224867218</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.0170872724459561</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.4489425420761108</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>0.0204380638897418</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0.020696472376585</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.0427661718893164</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.1991135239142386</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.0369525380245556</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.5653563737869263</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>0.0493724830448627</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>0.0497276820242404</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>FSH</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.1205563599001164</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.7025763870124153</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.2015540551425598</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.4836084246635437</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>0.1903207749128341</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>0.1793625354766845</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.278204804045512</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.7187104930467763</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.2638432364096081</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.7135802507400513</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.3326599299907684</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>0.3012345731258392</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.4717008755416678</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.4955748687738332</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.4892838894006368</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.830578088760376</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>0.8439829349517822</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>0.849577784538269</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.7304254682551508</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.7490459870433051</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.742965824883572</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.9489380717277528</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>0.9497288465499878</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>0.9596701264381408</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.3871233884163604</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.4533504536994604</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.4281502647287516</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.8322452306747437</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>0.8516348004341125</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>0.858952522277832</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.6175784220217966</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.6824305334140393</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.6585527928264068</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.9495667815208436</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>0.947196364402771</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.9588033556938172</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.4639011187425697</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.4915565742845703</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.4749401630470052</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.847109854221344</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>0.8795891404151917</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>0.8786603808403015</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.7260670340938221</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.7425934742007539</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.7315381587138829</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.9632399678230286</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>0.971540629863739</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>0.9741858839988708</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0.5977890993255521</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.6168846272809396</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0.6051443788294556</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0.8666979074478149</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>0.8933619260787964</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>0.8914504051208496</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>0.8395558449813008</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.8472114396944569</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>0.8415243656752417</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0.9713470935821532</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.9755567908287048</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>0.9762357473373412</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14">
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>LND</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.4071620976319325</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.4515171768950008</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0.4379165120935851</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0.8497676253318787</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>0.8726711869239807</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>0.8792068362236023</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>0.716601148554971</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.7271637399605159</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>0.7209160088924843</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0.964950144290924</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.9705979824066162</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>0.974916934967041</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RST</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>GJN</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>0.169375458377363</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>0.165435473489649</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>0.1654424235762732</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>0.537446916103363</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>0.5610104203224182</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.5769718885421753</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17">
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>0.2749020889020889</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.269515741015741</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>0.2686013266013266</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>0.7187371850013733</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>0.7105370759963989</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>0.7515375018119812</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0.0287394829865486</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>0.0641065809455718</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>0.0283183411294565</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0.4120133221149444</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>0.4132740497589111</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>0.447766900062561</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19">
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>0.0520252180317804</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>0.1010210215036425</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>0.0522239223413946</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>0.5586349964141846</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>0.5575743317604065</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.6089001893997192</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20">
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0.0317691195627018</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.0708372174674506</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0.0412005105075672</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>0.4802264273166656</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>0.4576557278633117</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>0.4624153077602386</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21">
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>0.0528393249476281</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.1119131738724137</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>0.0716172143857824</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>0.620580792427063</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>0.5986351370811462</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>0.6482383608818054</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22">
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>0.044935268581566</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>0.07818011018051919</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>0.0514545113937391</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>0.5134545564651489</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>0.5375981330871582</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>0.5196211338043213</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23">
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>0.07913480189498071</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>0.131786213610327</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>0.0912438360656751</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>0.6518320441246033</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>0.6749303936958313</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>0.7011776566505432</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24">
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0.0161759435569603</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.0505979522274439</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>0.0203005871076327</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>0.3372074663639068</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>0.3411926627159118</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>0.3319822251796722</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25">
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>0.0287471042295307</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.07804181602778611</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>0.0325086309660938</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>0.4543661773204803</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>0.4572497010231018</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>0.4997953772544861</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/baselines_results.xlsx
+++ b/output/baselines_results.xlsx
@@ -472,17 +472,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MostPop</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>EASEᴿ</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>BiVAE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EASEᴿ</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MostPop</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0191770842858194</v>
+        <v>0.0170872724459561</v>
       </c>
       <c r="E2" t="n">
         <v>0.1371091224867218</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0170872724459561</v>
+        <v>0.0191770842858194</v>
       </c>
       <c r="G2" t="n">
         <v>0.4489425420761108</v>
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.0427661718893164</v>
+        <v>0.0369525380245556</v>
       </c>
       <c r="E3" t="n">
         <v>0.1991135239142386</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0369525380245556</v>
+        <v>0.0427661718893164</v>
       </c>
       <c r="G3" t="n">
         <v>0.5653563737869263</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.1205563599001164</v>
+        <v>0.2015540551425598</v>
       </c>
       <c r="E4" t="n">
         <v>0.7025763870124153</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2015540551425598</v>
+        <v>0.1205563599001164</v>
       </c>
       <c r="G4" t="n">
         <v>0.4836084246635437</v>
@@ -603,13 +603,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.278204804045512</v>
+        <v>0.2638432364096081</v>
       </c>
       <c r="E5" t="n">
         <v>0.7187104930467763</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2638432364096081</v>
+        <v>0.278204804045512</v>
       </c>
       <c r="G5" t="n">
         <v>0.7135802507400513</v>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4717008755416678</v>
+        <v>0.4892838894006368</v>
       </c>
       <c r="E6" t="n">
         <v>0.4955748687738332</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4892838894006368</v>
+        <v>0.4717008755416678</v>
       </c>
       <c r="G6" t="n">
         <v>0.830578088760376</v>
@@ -665,13 +665,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.7304254682551508</v>
+        <v>0.742965824883572</v>
       </c>
       <c r="E7" t="n">
         <v>0.7490459870433051</v>
       </c>
       <c r="F7" t="n">
-        <v>0.742965824883572</v>
+        <v>0.7304254682551508</v>
       </c>
       <c r="G7" t="n">
         <v>0.9489380717277528</v>
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.3871233884163604</v>
+        <v>0.4281502647287516</v>
       </c>
       <c r="E8" t="n">
         <v>0.4533504536994604</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4281502647287516</v>
+        <v>0.3871233884163604</v>
       </c>
       <c r="G8" t="n">
         <v>0.8322452306747437</v>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6175784220217966</v>
+        <v>0.6585527928264068</v>
       </c>
       <c r="E9" t="n">
         <v>0.6824305334140393</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6585527928264068</v>
+        <v>0.6175784220217966</v>
       </c>
       <c r="G9" t="n">
         <v>0.9495667815208436</v>
@@ -754,13 +754,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4639011187425697</v>
+        <v>0.4749401630470052</v>
       </c>
       <c r="E10" t="n">
         <v>0.4915565742845703</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4749401630470052</v>
+        <v>0.4639011187425697</v>
       </c>
       <c r="G10" t="n">
         <v>0.847109854221344</v>
@@ -781,13 +781,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.7260670340938221</v>
+        <v>0.7315381587138829</v>
       </c>
       <c r="E11" t="n">
         <v>0.7425934742007539</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7315381587138829</v>
+        <v>0.7260670340938221</v>
       </c>
       <c r="G11" t="n">
         <v>0.9632399678230286</v>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5977890993255521</v>
+        <v>0.6051443788294556</v>
       </c>
       <c r="E12" t="n">
         <v>0.6168846272809396</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6051443788294556</v>
+        <v>0.5977890993255521</v>
       </c>
       <c r="G12" t="n">
         <v>0.8666979074478149</v>
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8395558449813008</v>
+        <v>0.8415243656752417</v>
       </c>
       <c r="E13" t="n">
         <v>0.8472114396944569</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8415243656752417</v>
+        <v>0.8395558449813008</v>
       </c>
       <c r="G13" t="n">
         <v>0.9713470935821532</v>
@@ -870,13 +870,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4071620976319325</v>
+        <v>0.4379165120935851</v>
       </c>
       <c r="E14" t="n">
         <v>0.4515171768950008</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4379165120935851</v>
+        <v>0.4071620976319325</v>
       </c>
       <c r="G14" t="n">
         <v>0.8497676253318787</v>
@@ -897,13 +897,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.716601148554971</v>
+        <v>0.7209160088924843</v>
       </c>
       <c r="E15" t="n">
         <v>0.7271637399605159</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7209160088924843</v>
+        <v>0.716601148554971</v>
       </c>
       <c r="G15" t="n">
         <v>0.964950144290924</v>
@@ -932,13 +932,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.169375458377363</v>
+        <v>0.1654424235762732</v>
       </c>
       <c r="E16" t="n">
         <v>0.165435473489649</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1654424235762732</v>
+        <v>0.169375458377363</v>
       </c>
       <c r="G16" t="n">
         <v>0.537446916103363</v>
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2749020889020889</v>
+        <v>0.2686013266013266</v>
       </c>
       <c r="E17" t="n">
         <v>0.269515741015741</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2686013266013266</v>
+        <v>0.2749020889020889</v>
       </c>
       <c r="G17" t="n">
         <v>0.7187371850013733</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.0287394829865486</v>
+        <v>0.0283183411294565</v>
       </c>
       <c r="E18" t="n">
         <v>0.0641065809455718</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0283183411294565</v>
+        <v>0.0287394829865486</v>
       </c>
       <c r="G18" t="n">
         <v>0.4120133221149444</v>
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0520252180317804</v>
+        <v>0.0522239223413946</v>
       </c>
       <c r="E19" t="n">
         <v>0.1010210215036425</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0522239223413946</v>
+        <v>0.0520252180317804</v>
       </c>
       <c r="G19" t="n">
         <v>0.5586349964141846</v>
@@ -1048,13 +1048,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.0317691195627018</v>
+        <v>0.0412005105075672</v>
       </c>
       <c r="E20" t="n">
         <v>0.0708372174674506</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0412005105075672</v>
+        <v>0.0317691195627018</v>
       </c>
       <c r="G20" t="n">
         <v>0.4802264273166656</v>
@@ -1075,13 +1075,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0528393249476281</v>
+        <v>0.0716172143857824</v>
       </c>
       <c r="E21" t="n">
         <v>0.1119131738724137</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0716172143857824</v>
+        <v>0.0528393249476281</v>
       </c>
       <c r="G21" t="n">
         <v>0.620580792427063</v>
@@ -1106,13 +1106,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.044935268581566</v>
+        <v>0.0514545113937391</v>
       </c>
       <c r="E22" t="n">
         <v>0.07818011018051919</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0514545113937391</v>
+        <v>0.044935268581566</v>
       </c>
       <c r="G22" t="n">
         <v>0.5134545564651489</v>
@@ -1133,13 +1133,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.07913480189498071</v>
+        <v>0.0912438360656751</v>
       </c>
       <c r="E23" t="n">
         <v>0.131786213610327</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0912438360656751</v>
+        <v>0.07913480189498071</v>
       </c>
       <c r="G23" t="n">
         <v>0.6518320441246033</v>
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0161759435569603</v>
+        <v>0.0203005871076327</v>
       </c>
       <c r="E24" t="n">
         <v>0.0505979522274439</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0203005871076327</v>
+        <v>0.0161759435569603</v>
       </c>
       <c r="G24" t="n">
         <v>0.3372074663639068</v>
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0287471042295307</v>
+        <v>0.0325086309660938</v>
       </c>
       <c r="E25" t="n">
         <v>0.07804181602778611</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0325086309660938</v>
+        <v>0.0287471042295307</v>
       </c>
       <c r="G25" t="n">
         <v>0.4543661773204803</v>

--- a/output/baselines_results.xlsx
+++ b/output/baselines_results.xlsx
@@ -1,43 +1,117 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+  <si>
+    <t>MostPop</t>
+  </si>
+  <si>
+    <t>EASEᴿ</t>
+  </si>
+  <si>
+    <t>BiVAE</t>
+  </si>
+  <si>
+    <t>ETeR-X</t>
+  </si>
+  <si>
+    <t>USEM</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Subset</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>FSH</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
+    <t>LND</t>
+  </si>
+  <si>
+    <t>GJN</t>
+  </si>
+  <si>
+    <t>NDCG@10</t>
+  </si>
+  <si>
+    <t>Recall@10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,30 +120,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,83 +139,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -441,792 +436,690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Set</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Subset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MostPop</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>EASEᴿ</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>BiVAE</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ETeR-X</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>USEM</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>BERT</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>MSC</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
         <v>0.0170872724459561</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.1371091224867218</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.0191770842858194</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.4489425420761108</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>0.0204380638897418</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>0.020696472376585</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3">
         <v>0.0369525380245556</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.1991135239142386</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.0427661718893164</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.5653563737869263</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.0493724830448627</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>0.0497276820242404</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
         <v>0.2015540551425598</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.7025763870124153</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.1205563599001164</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.4836084246635437</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>0.1903207749128341</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.1793625354766845</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
         <v>0.2638432364096081</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.7187104930467763</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.278204804045512</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.7135802507400513</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.3326599299907684</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.3012345731258392</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>POI</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>BCN</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>0.4892838894006368</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.4955748687738332</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.4717008755416678</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.830578088760376</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>0.8439829349517822</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.849577784538269</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
         <v>0.742965824883572</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.7490459870433051</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.7304254682551508</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.9489380717277528</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.9497288465499878</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.9596701264381408</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
         <v>0.4281502647287516</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.4533504536994604</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.3871233884163604</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.8322452306747437</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.8516348004341125</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.858952522277832</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
         <v>0.6585527928264068</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.6824305334140393</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.6175784220217966</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.9495667815208436</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.947196364402771</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.9588033556938172</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
         <v>0.4749401630470052</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.4915565742845703</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.4639011187425697</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.847109854221344</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.8795891404151917</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.8786603808403015</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
         <v>0.7315381587138829</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.7425934742007539</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.7260670340938221</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.9632399678230286</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0.971540629863739</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.9741858839988708</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>PRS</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>0.6051443788294556</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.6168846272809396</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.5977890993255521</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.8666979074478149</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>0.8933619260787964</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.8914504051208496</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
         <v>0.8415243656752417</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.8472114396944569</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.8395558449813008</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.9713470935821532</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.9755567908287048</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.9762357473373412</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>LND</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
         <v>0.4379165120935851</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.4515171768950008</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.4071620976319325</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.8497676253318787</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.8726711869239807</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.8792068362236023</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
         <v>0.7209160088924843</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.7271637399605159</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.716601148554971</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.964950144290924</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>0.9705979824066162</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.974916934967041</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>RST</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>GJN</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
         <v>0.1654424235762732</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.165435473489649</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.169375458377363</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.537446916103363</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>0.5610104203224182</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.5769718885421753</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
         <v>0.2686013266013266</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.269515741015741</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.2749020889020889</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.7187371850013733</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.7105370759963989</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.7515375018119812</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>BCN</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
         <v>0.0283183411294565</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.0641065809455718</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.0287394829865486</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.4120133221149444</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0.4132740497589111</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.447766900062561</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
         <v>0.0522239223413946</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.1010210215036425</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.0520252180317804</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.5586349964141846</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>0.5575743317604065</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.6089001893997192</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
         <v>0.0412005105075672</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.0708372174674506</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.0317691195627018</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.4802264273166656</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0.4576557278633117</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.4624153077602386</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
         <v>0.0716172143857824</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.1119131738724137</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.0528393249476281</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.620580792427063</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0.5986351370811462</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.6482383608818054</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
         <v>0.0514545113937391</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.07818011018051919</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.044935268581566</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.5134545564651489</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.5375981330871582</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.5196211338043213</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+    <row r="23" spans="1:9">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
         <v>0.0912438360656751</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.131786213610327</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.07913480189498071</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.6518320441246033</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.6749303936958313</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.7011776566505432</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>PRS</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
         <v>0.0203005871076327</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.0505979522274439</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.0161759435569603</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.3372074663639068</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>0.3411926627159118</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.3319822251796722</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+    <row r="25" spans="1:9">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
         <v>0.0325086309660938</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.07804181602778611</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.0287471042295307</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.4543661773204803</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.4572497010231018</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.4997953772544861</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A6:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>